--- a/C10 Final List.xlsx
+++ b/C10 Final List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Srikanth\C-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forty\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57066140-F78F-4000-AA36-E2D210CA0B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044530FA-93E0-4AC9-862C-7FCCE8527474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2CFB9658-7A4F-4879-A79A-4B8F11B3D6C4}"/>
   </bookViews>
@@ -320,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -343,6 +343,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -358,8 +369,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B8D9EC-0A53-4511-AF69-4CB97E098E8A}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -697,7 +708,7 @@
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -711,7 +722,7 @@
       <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -725,7 +736,7 @@
       <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -739,7 +750,7 @@
       <c r="C4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -753,7 +764,7 @@
       <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -767,7 +778,7 @@
       <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -781,7 +792,7 @@
       <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -809,7 +820,7 @@
       <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -823,7 +834,7 @@
       <c r="C10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -837,7 +848,7 @@
       <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -851,7 +862,7 @@
       <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -865,7 +876,7 @@
       <c r="C13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -879,7 +890,7 @@
       <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -893,7 +904,7 @@
       <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -907,7 +918,7 @@
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -921,7 +932,7 @@
       <c r="C17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -935,7 +946,7 @@
       <c r="C18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -949,7 +960,7 @@
       <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -963,7 +974,7 @@
       <c r="C20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -977,7 +988,7 @@
       <c r="C21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -991,7 +1002,7 @@
       <c r="C22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1005,7 +1016,7 @@
       <c r="C23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1019,7 +1030,7 @@
       <c r="C24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1033,7 +1044,7 @@
       <c r="C25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1047,8 +1058,18 @@
       <c r="C26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
